--- a/supporting_material/template.xlsx
+++ b/supporting_material/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/supporting_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1646B2-8FBD-0941-A658-8AF00ED714C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE08652-9874-834D-89B9-11F11335DFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1600" windowWidth="27220" windowHeight="17080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1600" windowWidth="27220" windowHeight="17080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="8" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="1775">
   <si>
     <t>GCCTCG</t>
   </si>
@@ -5347,10 +5347,28 @@
     <t>experiments</t>
   </si>
   <si>
-    <t xml:space="preserve">campaign.fastq.gz </t>
-  </si>
-  <si>
     <t>A. Smith</t>
+  </si>
+  <si>
+    <t>campaign.fastq.gz</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -6210,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974D6FDA-E213-EB43-BFF9-649EFEA0E858}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6242,7 +6260,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6268,22 +6286,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9286309-5176-CB48-AB9B-E8EF56CF21B1}">
-  <dimension ref="A1:F613"/>
+  <dimension ref="A1:G613"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -6296,19 +6316,22 @@
       <c r="D1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C2" s="48">
         <v>45561</v>
@@ -6316,19 +6339,20 @@
       <c r="D2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C3" s="48">
         <v>45561</v>
@@ -6336,19 +6360,20 @@
       <c r="D3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C4" s="48">
         <v>45561</v>
@@ -6356,19 +6381,20 @@
       <c r="D4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C5" s="48">
         <v>45561</v>
@@ -6376,19 +6402,22 @@
       <c r="D5" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="27" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C6" s="48">
         <v>45561</v>
@@ -6396,19 +6425,22 @@
       <c r="D6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="27" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="G6" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C7" s="48">
         <v>45561</v>
@@ -6416,19 +6448,22 @@
       <c r="D7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="27" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C8" s="48">
         <v>45561</v>
@@ -6436,19 +6471,22 @@
       <c r="D8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C9" s="48">
         <v>45561</v>
@@ -6456,19 +6494,22 @@
       <c r="D9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C10" s="48">
         <v>45561</v>
@@ -6476,19 +6517,22 @@
       <c r="D10" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C11" s="48">
         <v>45561</v>
@@ -6496,19 +6540,20 @@
       <c r="D11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C12" s="48">
         <v>45561</v>
@@ -6516,19 +6561,20 @@
       <c r="D12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C13" s="48">
         <v>45561</v>
@@ -6536,19 +6582,20 @@
       <c r="D13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C14" s="48">
         <v>45561</v>
@@ -6556,19 +6603,22 @@
       <c r="D14" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="29" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="G14" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C15" s="48">
         <v>45561</v>
@@ -6576,19 +6626,22 @@
       <c r="D15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="29" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C16" s="48">
         <v>45561</v>
@@ -6596,19 +6649,22 @@
       <c r="D16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="29" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C17" s="48">
         <v>45561</v>
@@ -6616,19 +6672,22 @@
       <c r="D17" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="30" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="G17" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C18" s="48">
         <v>45561</v>
@@ -6636,19 +6695,22 @@
       <c r="D18" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="30" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="G18" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C19" s="48">
         <v>45561</v>
@@ -6656,19 +6718,22 @@
       <c r="D19" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="30" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="G19" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C20" s="48">
         <v>45582</v>
@@ -6676,19 +6741,20 @@
       <c r="D20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="G20" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C21" s="48">
         <v>45582</v>
@@ -6696,19 +6762,20 @@
       <c r="D21" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C22" s="48">
         <v>45582</v>
@@ -6716,19 +6783,20 @@
       <c r="D22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C23" s="48">
         <v>45582</v>
@@ -6736,19 +6804,22 @@
       <c r="D23" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="31" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="G23" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C24" s="48">
         <v>45582</v>
@@ -6756,19 +6827,22 @@
       <c r="D24" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="31" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="G24" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C25" s="48">
         <v>45582</v>
@@ -6776,19 +6850,22 @@
       <c r="D25" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="31" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="G25" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C26" s="48">
         <v>45582</v>
@@ -6796,19 +6873,22 @@
       <c r="D26" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="31" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="G26" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C27" s="48">
         <v>45582</v>
@@ -6816,19 +6896,22 @@
       <c r="D27" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="31" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C28" s="51">
         <v>45582</v>
@@ -6836,23 +6919,26 @@
       <c r="D28" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="33" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F28" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="G28" s="34" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
